--- a/doc/bug-report.xlsx
+++ b/doc/bug-report.xlsx
@@ -11,27 +11,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Bug Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Expected vs. Actual</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+  <si>
+    <t>Report Date</t>
+  </si>
+  <si>
+    <t>Reported By</t>
   </si>
   <si>
     <t>Priority</t>
   </si>
   <si>
-    <t>Assignment</t>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Assigned To</t>
+  </si>
+  <si>
+    <t>Short Description</t>
+  </si>
+  <si>
+    <t>Expected Results</t>
+  </si>
+  <si>
+    <t>Actual Results</t>
+  </si>
+  <si>
+    <t>Steps to Reproduce</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>P2 - Serious, game not working as expected</t>
+  </si>
+  <si>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t>Player will stuck to top/bottom bound when player touched the bound</t>
+  </si>
+  <si>
+    <t>Player should be trap within the bound buy still able to leave the bound</t>
+  </si>
+  <si>
+    <t>Player will be stuck to the top/bottom bound</t>
+  </si>
+  <si>
+    <t>Move player until it reach/the top or bottom</t>
+  </si>
+  <si>
+    <t>Annie</t>
+  </si>
+  <si>
+    <t>P3 - Annoying, could ship but loss of marks</t>
+  </si>
+  <si>
+    <t>Player can go beyond the "floor" and onto the wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should not be able to go "top" and onto the backgorund's wall </t>
+  </si>
+  <si>
+    <t>Can go "north" and go onto the wall</t>
+  </si>
+  <si>
+    <t>Move upwards towards the wall and keep going</t>
+  </si>
+  <si>
+    <t>P4 - Annoying/Limiting but could ship as is</t>
+  </si>
+  <si>
+    <t>In-Progress</t>
+  </si>
+  <si>
+    <t>Score displays over top of help menu</t>
+  </si>
+  <si>
+    <t>Help menu covers all of the components of the game</t>
+  </si>
+  <si>
+    <t>Help desk is covered by the score counter.</t>
+  </si>
+  <si>
+    <t>Press 'H' and observe.</t>
+  </si>
+  <si>
+    <t>P5 - Minor or Feature that would be nice to have</t>
+  </si>
+  <si>
+    <t>Kush</t>
+  </si>
+  <si>
+    <t>Bullet will go over the health bar</t>
+  </si>
+  <si>
+    <t>Bullet will rendered under the health bar</t>
+  </si>
+  <si>
+    <t>Bullet will rendered on the health bar</t>
+  </si>
+  <si>
+    <t>Shoot to the health bar</t>
+  </si>
+  <si>
+    <t>Backgound music will continue to play even the player is dead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I might be better if the backgound music pause when player is dead </t>
+  </si>
+  <si>
+    <t>Music will continue to play</t>
+  </si>
+  <si>
+    <t>Let the player die</t>
+  </si>
+  <si>
+    <t>Won't Fix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minion will not collide with each other. It's kinda like a feature because Brotato (propular 2D shooting game) also do it in this way. </t>
+  </si>
+  <si>
+    <t>I can make minion collide if it's required</t>
+  </si>
+  <si>
+    <t>Minion will overlay on each other</t>
+  </si>
+  <si>
+    <t>try to group minion by moving in circle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10.0"/>
@@ -71,14 +188,26 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -295,12 +424,18 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="37.5"/>
-    <col customWidth="1" min="3" max="3" width="44.25"/>
-    <col customWidth="1" min="4" max="4" width="19.5"/>
+    <col customWidth="1" min="1" max="1" width="10.63"/>
+    <col customWidth="1" min="2" max="2" width="10.88"/>
+    <col customWidth="1" min="3" max="3" width="22.75"/>
+    <col customWidth="1" min="4" max="4" width="15.5"/>
+    <col customWidth="1" min="5" max="5" width="13.88"/>
+    <col customWidth="1" min="6" max="6" width="44.25"/>
+    <col customWidth="1" min="7" max="7" width="30.13"/>
+    <col customWidth="1" min="8" max="8" width="30.25"/>
+    <col customWidth="1" min="9" max="9" width="21.63"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="24.0" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -316,291 +451,784 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="1">
+      <c r="A2" s="2">
+        <v>45354.0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="30.75" customHeight="1">
+      <c r="A3" s="2">
+        <v>45355.0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4">
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="2">
+        <v>45356.0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5">
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="2">
+        <v>45356.0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6">
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="A6" s="2">
+        <v>45356.0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="A7" s="2">
+        <v>45356.0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9">
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12">
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15">
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16">
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17">
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24">
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25">
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26">
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27">
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28">
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29">
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
     </row>
     <row r="32">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
     </row>
     <row r="33">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
     </row>
     <row r="34">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
     </row>
     <row r="35">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
     </row>
     <row r="36">
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
     </row>
     <row r="37">
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
     </row>
     <row r="38">
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
     </row>
     <row r="39">
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
     </row>
     <row r="40">
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
     </row>
     <row r="41">
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
     </row>
     <row r="42">
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
     </row>
     <row r="43">
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
     </row>
     <row r="44">
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
     </row>
     <row r="45">
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
     </row>
     <row r="46">
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
     </row>
     <row r="47">
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
     </row>
     <row r="48">
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
     </row>
     <row r="49">
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
     </row>
     <row r="50">
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
     </row>
     <row r="51">
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
     </row>
     <row r="52">
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
     </row>
     <row r="53">
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
     </row>
     <row r="54">
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
     </row>
     <row r="55">
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
     </row>
     <row r="56">
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
     </row>
     <row r="57">
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
     </row>
     <row r="58">
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
     </row>
     <row r="59">
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
     </row>
     <row r="60">
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
     </row>
     <row r="61">
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
     </row>
     <row r="62">
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
     </row>
     <row r="63">
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
     </row>
     <row r="64">
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
     </row>
     <row r="65">
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
     </row>
     <row r="66">
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
     </row>
     <row r="67">
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
     </row>
     <row r="68">
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
     </row>
     <row r="69">
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
     </row>
     <row r="70">
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
     </row>
     <row r="71">
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72">
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73">
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
     </row>
   </sheetData>
   <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C71">
+      <formula1>"P0 - Game crashes,P1 - Game stops working but no crash,P2 - Serious, game not working as expected,P3 - Annoying, could ship but loss of marks,P4 - Annoying/Limiting but could ship as is,P5 - Minor or Feature that would be nice to have"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D71">
-      <formula1>"Low,Medium,High,Extreme"</formula1>
+      <formula1>"Open,In-Progress,Resolved,Won't Fix"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E71">
       <formula1>"Annie,Kush,Vicky,Eddie,Timothy,Andrew"</formula1>

--- a/doc/bug-report.xlsx
+++ b/doc/bug-report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>Report Date</t>
   </si>
@@ -79,7 +79,7 @@
     <t>Move upwards towards the wall and keep going</t>
   </si>
   <si>
-    <t>P4 - Annoying/Limiting but could ship as is</t>
+    <t>P5 - Minor or Feature that would be nice to have</t>
   </si>
   <si>
     <t>In-Progress</t>
@@ -97,24 +97,24 @@
     <t>Press 'H' and observe.</t>
   </si>
   <si>
-    <t>P5 - Minor or Feature that would be nice to have</t>
+    <t>health bar will go over the bullet</t>
+  </si>
+  <si>
+    <t>Bullet will rendered above the health bar</t>
+  </si>
+  <si>
+    <t>health bar will rendered on the bullet</t>
+  </si>
+  <si>
+    <t>Shoot to the health bar</t>
+  </si>
+  <si>
+    <t>Won't Fix</t>
   </si>
   <si>
     <t>Kush</t>
   </si>
   <si>
-    <t>Bullet will go over the health bar</t>
-  </si>
-  <si>
-    <t>Bullet will rendered under the health bar</t>
-  </si>
-  <si>
-    <t>Bullet will rendered on the health bar</t>
-  </si>
-  <si>
-    <t>Shoot to the health bar</t>
-  </si>
-  <si>
     <t>Backgound music will continue to play even the player is dead</t>
   </si>
   <si>
@@ -127,9 +127,6 @@
     <t>Let the player die</t>
   </si>
   <si>
-    <t>Won't Fix</t>
-  </si>
-  <si>
     <t xml:space="preserve">Minion will not collide with each other. It's kinda like a feature because Brotato (propular 2D shooting game) also do it in this way. </t>
   </si>
   <si>
@@ -140,6 +137,60 @@
   </si>
   <si>
     <t>try to group minion by moving in circle</t>
+  </si>
+  <si>
+    <t>Vicky</t>
+  </si>
+  <si>
+    <t>Minions will keep flashing when they overlap on bullet/power up</t>
+  </si>
+  <si>
+    <t>Should overlap normally and should not keep flashing</t>
+  </si>
+  <si>
+    <t>Overlap each other, but flashing</t>
+  </si>
+  <si>
+    <t>might be something related to order for rendering</t>
+  </si>
+  <si>
+    <t>Roamer's speed some time will be super fast/slow</t>
+  </si>
+  <si>
+    <t>Roamer have a speed range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roamer will be have a very different speed </t>
+  </si>
+  <si>
+    <t>let roamer hit the boundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew </t>
+  </si>
+  <si>
+    <t>Player sometimes can be stuck in the wall if it stay there for too long</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Player should not be stuck in the wall</t>
+  </si>
+  <si>
+    <t>Player will be stuck in the wall</t>
+  </si>
+  <si>
+    <t>Keep moving player to boundary for 3 seconds</t>
+  </si>
+  <si>
+    <t>Health bar will go over the frame if health is too large</t>
+  </si>
+  <si>
+    <t>health bar should be contanted within the health frame</t>
+  </si>
+  <si>
+    <t>health bar will go over the frame if player health is &gt;100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set player health to different value </t>
   </si>
 </sst>
 </file>
@@ -149,7 +200,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -167,8 +218,12 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,6 +236,12 @@
         <bgColor rgb="FFC9DAF8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -188,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -203,6 +264,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -559,25 +623,25 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -588,13 +652,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>34</v>
@@ -617,610 +681,695 @@
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="4" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>45373.0</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="2">
+        <v>45373.0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10">
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="A10" s="2">
+        <v>45374.0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11">
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="A11" s="2">
+        <v>45375.0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="12">
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="A12" s="2"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13">
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="A13" s="2"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14">
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="A14" s="2"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16">
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20">
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21">
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22">
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24">
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
     </row>
     <row r="25">
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26">
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27">
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
     </row>
     <row r="28">
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
     </row>
     <row r="29">
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
     </row>
     <row r="30">
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
     </row>
     <row r="31">
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
     </row>
     <row r="32">
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
     </row>
     <row r="33">
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
     </row>
     <row r="34">
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
     </row>
     <row r="35">
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
     </row>
     <row r="36">
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
     </row>
     <row r="37">
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
     </row>
     <row r="38">
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
     </row>
     <row r="39">
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
     </row>
     <row r="40">
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
     </row>
     <row r="41">
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
     </row>
     <row r="42">
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
     </row>
     <row r="43">
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
     </row>
     <row r="44">
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
     </row>
     <row r="45">
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
     </row>
     <row r="46">
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
     </row>
     <row r="47">
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
     </row>
     <row r="48">
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
     </row>
     <row r="49">
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
     </row>
     <row r="50">
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
     </row>
     <row r="51">
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
     </row>
     <row r="52">
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
     </row>
     <row r="53">
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
     </row>
     <row r="54">
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
     </row>
     <row r="55">
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
     </row>
     <row r="56">
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
     </row>
     <row r="57">
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
     </row>
     <row r="58">
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
     </row>
     <row r="59">
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
     </row>
     <row r="60">
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
     </row>
     <row r="61">
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
     </row>
     <row r="62">
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
     </row>
     <row r="63">
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
     </row>
     <row r="64">
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
     </row>
     <row r="65">
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
     </row>
     <row r="66">
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
     </row>
     <row r="67">
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
     </row>
     <row r="68">
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
     </row>
     <row r="69">
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
     </row>
     <row r="70">
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
     </row>
     <row r="71">
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
     </row>
     <row r="72">
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
     </row>
     <row r="73">
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
     </row>
   </sheetData>
   <dataValidations>

--- a/doc/bug-report.xlsx
+++ b/doc/bug-report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
   <si>
     <t>Report Date</t>
   </si>
@@ -191,6 +191,72 @@
   </si>
   <si>
     <t xml:space="preserve">set player health to different value </t>
+  </si>
+  <si>
+    <t>Bullets and powerups display overtop of cutscenes</t>
+  </si>
+  <si>
+    <t>nothing should render over top of  the cutscenes</t>
+  </si>
+  <si>
+    <t>bullets and powerups over cutscenes</t>
+  </si>
+  <si>
+    <t>shoot bullets as the cutscenes are begining</t>
+  </si>
+  <si>
+    <t>P4 - Annoying/Limiting but could ship as is</t>
+  </si>
+  <si>
+    <t>player will keep recieveing the key borad input (super rare case)even no been pressed</t>
+  </si>
+  <si>
+    <t>Key input recieve normally</t>
+  </si>
+  <si>
+    <t>Key input will keep input(player keep moving in a direction)</t>
+  </si>
+  <si>
+    <t>Not sure, but when it occur, just press the key in the same direcation and it will fix this issue</t>
+  </si>
+  <si>
+    <t>Eddie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boss is using AABB collision </t>
+  </si>
+  <si>
+    <t>Boss is using mesh</t>
+  </si>
+  <si>
+    <t>Boss use AABB</t>
+  </si>
+  <si>
+    <t>Shoot to  boss</t>
+  </si>
+  <si>
+    <t>Split force to strong when the enemy get too cloose</t>
+  </si>
+  <si>
+    <t>Split force should be mild</t>
+  </si>
+  <si>
+    <t>Split force to strong when the enemy get too clooseo strong when the enemy get too cloose</t>
+  </si>
+  <si>
+    <t>Try to make two enemy really close</t>
+  </si>
+  <si>
+    <t>Some super minior layering issue, when the enemy get too cloose</t>
+  </si>
+  <si>
+    <t>No layering issue.</t>
+  </si>
+  <si>
+    <t>Some layering issue</t>
+  </si>
+  <si>
+    <t>try to get enemy close</t>
   </si>
 </sst>
 </file>
@@ -684,7 +750,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
@@ -819,52 +885,149 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="A12" s="2">
+        <v>45388.0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="2"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="A13" s="2">
+        <v>45389.0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="2"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="A14" s="2">
+        <v>45390.0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15">
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="A15" s="2">
+        <v>45390.0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="16">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="A16" s="2">
+        <v>45390.0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="17">
       <c r="C17" s="6"/>

--- a/doc/bug-report.xlsx
+++ b/doc/bug-report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="86">
   <si>
     <t>Report Date</t>
   </si>
@@ -257,6 +257,18 @@
   </si>
   <si>
     <t>try to get enemy close</t>
+  </si>
+  <si>
+    <t>Powerups are able to render on top of each other.</t>
+  </si>
+  <si>
+    <t>Expected that there be some jitter with the powerups so that the powerups generate evenly throughout the game board.</t>
+  </si>
+  <si>
+    <t>Powerups are able to layer on top of each other.</t>
+  </si>
+  <si>
+    <t>Play the game for a long enough time, and observe how the powerups generate.</t>
   </si>
 </sst>
 </file>
@@ -1030,13 +1042,33 @@
       </c>
     </row>
     <row r="17">
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="A17" s="2">
+        <v>45391.0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="18">
       <c r="C18" s="6"/>
